--- a/pred_ohlcv/54_21/2019-10-27 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 FAB ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-625681.7688999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-625681.7688999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-655136.7590999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-705136.7590999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-583927.3542999999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-538600.5323999999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-538600.5323999999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-535100.5323999999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-521825.5323999999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-540056.4578999999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-540056.4578999999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-540024.5808999999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-590824.5808999999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-586089.4018</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-586343.4794</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-672166.7657999999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-762066.7657999999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-671898.5351</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-671898.5351</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-671898.5351</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-671898.5351</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-671898.5351</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-671898.5351</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-620008.5797</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-620008.5797</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-620008.5797</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-576128.4763</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-570363.8408</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-425669.4168</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-417526.8817</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-417526.8817</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-539517.8469</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-539517.8469</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-929277.0253</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-930482.3245999999</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-930482.3245999999</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-930482.3245999999</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-930482.3245999999</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1154993.6294</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1154993.6294</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1154993.6294</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 FAB ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-625681.7688999999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-625681.7688999999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-655136.7590999999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-705136.7590999999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-583927.3542999999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-538600.5323999999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-538600.5323999999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-535100.5323999999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-521825.5323999999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-540056.4578999999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-540056.4578999999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-540024.5808999999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-590824.5808999999</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-586089.4018</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-586343.4794</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-672166.7657999999</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-762066.7657999999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-671898.5351</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-671898.5351</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-671898.5351</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-671898.5351</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-671898.5351</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-671898.5351</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-620008.5797</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-620008.5797</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-620008.5797</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-576128.4763</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-570363.8408</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-425669.4168</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-417526.8817</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-417526.8817</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-539517.8469</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-539517.8469</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-929277.0253</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-930482.3245999999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
